--- a/학사관리 데이터/샘플-성적데이터.xlsx
+++ b/학사관리 데이터/샘플-성적데이터.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Reference\샘플데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\학사관리 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="성적데이터" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +410,62 @@
   </si>
   <si>
     <t>S0100</t>
+  </si>
+  <si>
+    <t>과목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -454,12 +511,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7356,4 +7416,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C16" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/학사관리 데이터/샘플-성적데이터.xlsx
+++ b/학사관리 데이터/샘플-성적데이터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="성적데이터" sheetId="1" r:id="rId1"/>
@@ -837,11 +837,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7422,7 +7425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -7448,7 +7451,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7460,7 +7463,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C16" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7472,7 +7475,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7484,7 +7487,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7496,7 +7499,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7508,7 +7511,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7520,7 +7523,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7532,7 +7535,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7544,7 +7547,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7556,7 +7559,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7568,7 +7571,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7580,7 +7583,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7592,7 +7595,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7604,7 +7607,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7616,7 +7619,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
